--- a/epigraphhub/data/brasil/sinan/metadata/DIFT.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/DIFT.xlsx
@@ -87,8 +87,7 @@
     <t xml:space="preserve">DT_INVEST</t>
   </si>
   <si>
-    <t xml:space="preserve">32-Ocupação/ Ramo de
-Atividade Econômica</t>
+    <t xml:space="preserve">32-Ocupação/ Ramo de Atividade Econômica</t>
   </si>
   <si>
     <t xml:space="preserve">co_cbo_ocupacao</t>
@@ -122,11 +121,7 @@
     <t xml:space="preserve">ID_OCUPA_N</t>
   </si>
   <si>
-    <t xml:space="preserve">33-Contato Com Caso
-Suspeito ou Confirmado
-de Difteria (Até 14 Dias
-Antes do Início dos
-Sinais E Sintomas)</t>
+    <t xml:space="preserve">33-Contato Com Caso Suspeito ou Confirmado de Difteria (Até 14 Dias Antes do Início dos Sinais E Sintomas)</t>
   </si>
   <si>
     <t xml:space="preserve">tp_contato_difteria</t>
@@ -192,8 +187,7 @@
     <t xml:space="preserve">ANT_TIPOCO</t>
   </si>
   <si>
-    <t xml:space="preserve">33-Se Outro contato
-(Especificar)</t>
+    <t xml:space="preserve">33-Se Outro contato (Especificar)</t>
   </si>
   <si>
     <t xml:space="preserve">ds_contato_difteria_outro</t>
@@ -250,84 +244,26 @@
     <t xml:space="preserve">ANT_ENDECO</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">36-N.º de Doses da
-Vacina Tríplice (DTP) ou
-Tetravalente (DTP+Hib) </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">ou Dupla (DTou dT)</t>
-    </r>
+    <t xml:space="preserve">36-N.º de Doses da Vacina Tríplice (DTP) ou Tetravalente (DTP+Hib) ou Dupla (DTou dT)</t>
   </si>
   <si>
     <t xml:space="preserve">tp_dose_vacina</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. Uma
+    <t xml:space="preserve">1. Uma
 2. Duas
 3. Três
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">4. Três + 1 reforço
+4. Três + 1 reforço
 5. Três + 2 reforços
 6. Nunca vacinado
 9. Ignorado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Número de doses da
+  </si>
+  <si>
+    <t xml:space="preserve">Número de doses da
 vacina tríplice (DPT)
-ou tetravalente </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(DTP+Hib) ou dupla
+ou tetravalente (DTP+Hib) ou dupla
 (DT ou dT) que o
 paciente recebeu.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -350,16 +286,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Se categoria = 6 (Nunca </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Vacinado) ou 9
+      <t xml:space="preserve">Se categoria = 6 (Nunca Vacinado) ou 9
 (Ignorado) pular para
 campo (Sinais e
 Sintomas)</t>
@@ -416,8 +343,7 @@
     <t xml:space="preserve">ANT_ULTI_D</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Sinais e Sintomas
-(Edema Ganglionar)</t>
+    <t xml:space="preserve">38-Sinais e Sintomas (Edema Ganglionar)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_edema_ganglionar</t>
@@ -475,8 +401,7 @@
     <t xml:space="preserve">CLI_EDEMAG</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Sinais e Sintomas
-(Edema de Pescoço)</t>
+    <t xml:space="preserve">38-Sinais e Sintomas (Edema de Pescoço)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_edema_pescoco</t>
@@ -495,8 +420,7 @@
     <t xml:space="preserve">CLI_PESCOC</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Sinais e Sintomas
-(Febre)</t>
+    <t xml:space="preserve">38-Sinais e Sintomas (Febre)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_febre</t>
@@ -514,8 +438,7 @@
     <t xml:space="preserve">CLI_FEBRE</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Sinais e Sintomas
-(Prostração)</t>
+    <t xml:space="preserve">38-Sinais e Sintomas (Prostração)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_prostracao</t>
@@ -528,8 +451,7 @@
     <t xml:space="preserve">CLI_PROSTR</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Sinais e Sintomas
-(Pseudomembrana)</t>
+    <t xml:space="preserve">38-Sinais e Sintomas (Pseudomembrana)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_pseudomenbrana</t>
@@ -550,8 +472,7 @@
     <t xml:space="preserve">CLI_PSEUDO</t>
   </si>
   <si>
-    <t xml:space="preserve">38-Sinais e Sintomas
-(Palidez)</t>
+    <t xml:space="preserve">38-Sinais e Sintomas (Palidez)</t>
   </si>
   <si>
     <t xml:space="preserve">st_sinais_palidez</t>
@@ -584,10 +505,7 @@
     <t xml:space="preserve">CLI_TEMPER</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas)
-(Cavidade Nasal)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Cavidade Nasal)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_nasal</t>
@@ -630,9 +548,7 @@
     <t xml:space="preserve">CLI_CAVIDA</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Amígdalas)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Amígdalas)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_amigdala</t>
@@ -648,10 +564,7 @@
     <t xml:space="preserve">CLI_AMIGDA</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) Cordão
-Umbilical)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) Cordão Umbilical)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_cordao</t>
@@ -667,9 +580,7 @@
     <t xml:space="preserve">CLI_CORDAO</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Faringe)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Faringe)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_faringe</t>
@@ -684,9 +595,7 @@
     <t xml:space="preserve">CLI_FARING</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Laringe)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Laringe)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_laringe</t>
@@ -701,10 +610,7 @@
     <t xml:space="preserve">CLI_LARING</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Órgãos
-Genitais)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Órgãos Genitais)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_genital</t>
@@ -720,8 +626,7 @@
     <t xml:space="preserve">CLI_ORGAOS</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da Pseudomembrana
-(Placas) (Palato)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Palato)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_palato</t>
@@ -735,10 +640,7 @@
     <t xml:space="preserve">CLI_PALATO</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Conduto
-Auditivo)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Conduto Auditivo)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_auditivo</t>
@@ -754,9 +656,7 @@
     <t xml:space="preserve">CLI_CONDUT</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Traquéia)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Traquéia)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_traqueia</t>
@@ -771,9 +671,7 @@
     <t xml:space="preserve">CLI_TRAQUE</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Pele)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Pele)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_pele</t>
@@ -788,9 +686,7 @@
     <t xml:space="preserve">CLI_PELE</t>
   </si>
   <si>
-    <t xml:space="preserve">40-Localização da
-Pseudomembrana
-(Placas) (Conjuntiva)</t>
+    <t xml:space="preserve">40-Localização da Pseudomembrana (Placas) (Conjuntiva)</t>
   </si>
   <si>
     <t xml:space="preserve">st_pseudomembrana_conjuntiva</t>
@@ -806,8 +702,7 @@
     <t xml:space="preserve">CLI_CONJUN</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram (Miocardite)</t>
+    <t xml:space="preserve">41-Complicações Existiram (Miocardite)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_miocardite</t>
@@ -821,8 +716,7 @@
     <t xml:space="preserve">CLI_MIOCAR</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram (Nefrite)</t>
+    <t xml:space="preserve">41-Complicações Existiram (Nefrite)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_nefrite</t>
@@ -836,10 +730,7 @@
     <t xml:space="preserve">CLI_NEFRIT</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram (Paralisia
-Bilateral e Simetrica das
-Extremidades)</t>
+    <t xml:space="preserve">41-Complicações Existiram (Paralisia Bilateral e Simetrica das Extremidades)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_bilateral</t>
@@ -855,11 +746,7 @@
     <t xml:space="preserve">CLI_PARALB</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram
-Paralisia do Palato (Regurgitação, Líquido
-pelo Nariz, Voz
-Anasalada)</t>
+    <t xml:space="preserve">41-Complicações Existiram Paralisia do Palato (Regurgitação, Líquido pelo Nariz, Voz Anasalada)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_palato</t>
@@ -875,9 +762,7 @@
     <t xml:space="preserve">CLI_PARALP</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram
-(Arritmias Cardíacas)</t>
+    <t xml:space="preserve">41-Complicações Existiram (Arritmias Cardíacas)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_arritmia</t>
@@ -891,10 +776,7 @@
     <t xml:space="preserve">CLI_ARRITM</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram
-(Paralisia dos Músculos
-Intercostais e Diafragma)</t>
+    <t xml:space="preserve">41-Complicações Existiram (Paralisia dos Músculos Intercostais e Diafragma)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_musculo</t>
@@ -910,9 +792,7 @@
     <t xml:space="preserve">CLI_PARALM</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Complicações
-Existiram
-(Outras)</t>
+    <t xml:space="preserve">41-Complicações Existiram (Outras)</t>
   </si>
   <si>
     <t xml:space="preserve">st_complicacao_outro</t>
@@ -927,8 +807,7 @@
     <t xml:space="preserve">CLI_OUTRAS</t>
   </si>
   <si>
-    <t xml:space="preserve">41-Outras Complicações
-Especificar</t>
+    <t xml:space="preserve">41-Outras Complicações Especificar</t>
   </si>
   <si>
     <t xml:space="preserve">ds_complicacao_outro</t>
@@ -947,8 +826,7 @@
     <t xml:space="preserve">CLI_ESPECI</t>
   </si>
   <si>
-    <t xml:space="preserve">42-Ocorreu
-Hospitalização</t>
+    <t xml:space="preserve">42-Ocorreu Hospitalização</t>
   </si>
   <si>
     <t xml:space="preserve">st_ocorreu_hospitalizacao</t>
@@ -1443,8 +1321,7 @@
     <t xml:space="preserve">LAB_CULTUR</t>
   </si>
   <si>
-    <t xml:space="preserve">50-Provas de
-Toxigenicidade</t>
+    <t xml:space="preserve">50-Provas de Toxigenicidade</t>
   </si>
   <si>
     <t xml:space="preserve">tp_prova_toxigenicidade</t>
@@ -1549,8 +1426,7 @@
     <t xml:space="preserve">LAB_PROVAS</t>
   </si>
   <si>
-    <t xml:space="preserve">51-Data da Aplicação do
-Soro</t>
+    <t xml:space="preserve">51-Data da Aplicação do Soro</t>
   </si>
   <si>
     <t xml:space="preserve">dt_aplicacao_soro</t>
@@ -1611,8 +1487,7 @@
     <t xml:space="preserve">TRA_ANTIBI</t>
   </si>
   <si>
-    <t xml:space="preserve">53-Data da Adm. do
-Antibiótico</t>
+    <t xml:space="preserve">53-Data da Adm. do Antibiótico</t>
   </si>
   <si>
     <t xml:space="preserve">dt_antibiotico</t>
@@ -1632,9 +1507,7 @@
     <t xml:space="preserve">TRA_DATA_A</t>
   </si>
   <si>
-    <t xml:space="preserve">54-Realizada
-Identificação dos
-Comunicantes Íntimos</t>
+    <t xml:space="preserve">54-Realizada Identificação dos Comunicantes Íntimos</t>
   </si>
   <si>
     <t xml:space="preserve">st_comunicante_intimo</t>
@@ -1753,10 +1626,7 @@
     <t xml:space="preserve">MED_QUAN_C</t>
   </si>
   <si>
-    <t xml:space="preserve">56-Quantos casos
-secundários foram
-confirmados entre os
-comunicantes</t>
+    <t xml:space="preserve">56-Quantos casos secundários foram confirmados entre os comunicantes</t>
   </si>
   <si>
     <t xml:space="preserve">tp_comunicante_confirmado</t>
@@ -1805,9 +1675,7 @@
     <t xml:space="preserve">MED_CASO_S</t>
   </si>
   <si>
-    <t xml:space="preserve">57-Realizada Coleta de
-Material dos
-Comunicantes</t>
+    <t xml:space="preserve">57-Realizada Coleta de Material dos Comunicantes</t>
   </si>
   <si>
     <t xml:space="preserve">st_comunicante_material</t>
@@ -1903,9 +1771,7 @@
     <t xml:space="preserve">MED_QUAN_M</t>
   </si>
   <si>
-    <t xml:space="preserve">59-Quantos portadores
-foram Identificados entre
-os comunicantes?</t>
+    <t xml:space="preserve">59-Quantos portadores foram Identificados entre os comunicantes?</t>
   </si>
   <si>
     <t xml:space="preserve">qt_comunicante_portador</t>
@@ -1944,8 +1810,7 @@
     <t xml:space="preserve">MED_QUAN_P</t>
   </si>
   <si>
-    <t xml:space="preserve">60-Medidas de
-Prevenção/ Controle</t>
+    <t xml:space="preserve">60-Medidas de Prevenção/ Controle</t>
   </si>
   <si>
     <t xml:space="preserve">st_medida_prevencao</t>
@@ -2012,8 +1877,7 @@
     <t xml:space="preserve">CLASSI_FIN</t>
   </si>
   <si>
-    <t xml:space="preserve">62-Critério de
-Confirmação/Descarte</t>
+    <t xml:space="preserve">62-Critério de Confirmação/Descarte</t>
   </si>
   <si>
     <t xml:space="preserve">tp_criterio_confirmacao</t>
@@ -2064,8 +1928,7 @@
     <t xml:space="preserve">CRITERIO</t>
   </si>
   <si>
-    <t xml:space="preserve">63-Doença Relacionada
-ao Trabalho</t>
+    <t xml:space="preserve">63-Doença Relacionada ao Trabalho</t>
   </si>
   <si>
     <t xml:space="preserve">st_doenca_trabalho</t>
@@ -2338,8 +2201,7 @@
     <t xml:space="preserve">DT_ENCERRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferência vertical da
-investigação</t>
+    <t xml:space="preserve">Transferência vertical da investigação</t>
   </si>
   <si>
     <t xml:space="preserve">nu_lote_vertical</t>
@@ -2397,7 +2259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2433,19 +2295,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2600,11 +2449,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2627,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="B63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="10" sqref="A3:A5 A8 A10:A15 A17:A36 A44:A45 A47:A48 A50:A51 A53:A54 A56:A57 A61 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
